--- a/downloaded_files/EPES303_Tutorial-35527.xlsx
+++ b/downloaded_files/EPES303_Tutorial-35527.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -141,6 +141,15 @@
     <x:t>Abdelrahman Samir Mohamed Abdelhameed Amer</x:t>
   </x:si>
   <x:si>
+    <x:t>1230298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن سيف الله حسام ابو ناعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABDELRAHMAN</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230075</x:t>
   </x:si>
   <x:si>
@@ -175,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Elsayed  Elsamaty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حازم عبد السلام محمد ناصف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Hazem Abdel Salam Mohamed Nasef</x:t>
   </x:si>
   <x:si>
     <x:t>1230106</x:t>
@@ -371,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1146,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4199939468</x:v>
+        <x:v>45922.5535414005</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.8850995023</x:v>
+        <x:v>45907.4199939468</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4148712963</x:v>
+        <x:v>45915.8850995023</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.5901162384</x:v>
+        <x:v>45907.4148712963</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45909.5901162384</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45922.5544126968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.415655706</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4207747685</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4214269676</x:v>
+        <x:v>45907.415655706</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4265503125</x:v>
+        <x:v>45907.4207747685</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4408876968</x:v>
+        <x:v>45907.4214269676</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45907.4265503125</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4197487269</x:v>
+        <x:v>45907.4408876968</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1547,6 +1565,70 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45907.4150437153</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45907.4197487269</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES303_Tutorial-35527.xlsx
+++ b/downloaded_files/EPES303_Tutorial-35527.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -123,15 +123,6 @@
     <x:t>Abdelrahman Ahmed Abdalla Ibrahim Mahmoud ElShaarawy</x:t>
   </x:si>
   <x:si>
-    <x:t>1230051</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد مصطفى كامل البنا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman ahmed mostafa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230056</x:t>
   </x:si>
   <x:si>
@@ -159,6 +150,15 @@
     <x:t>Omar Essam Ali shady</x:t>
   </x:si>
   <x:si>
+    <x:t>1230222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد محمود عبد الرؤف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Walid Mahmoud Abdelraouf</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230229</x:t>
   </x:si>
   <x:si>
@@ -220,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> MARIAM EHAB NOBY SAYED ELSAWY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى محمد ممدوح عاشور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Mohamed Mamdouh Ashour</x:t>
   </x:si>
   <x:si>
     <x:t>1220207</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1100,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4381296296</x:v>
+        <x:v>45907.418944213</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.418944213</x:v>
+        <x:v>45922.5535414005</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45922.5535414005</x:v>
+        <x:v>45907.4199939468</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4199939468</x:v>
+        <x:v>45907.4162157407</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1452,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4207747685</x:v>
+        <x:v>45923.2929736921</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4214269676</x:v>
+        <x:v>45907.4207747685</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4265503125</x:v>
+        <x:v>45907.4214269676</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4408876968</x:v>
+        <x:v>45907.4265503125</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45907.4408876968</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4197487269</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45907.4197487269</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES303_Tutorial-35527.xlsx
+++ b/downloaded_files/EPES303_Tutorial-35527.xlsx
@@ -78,15 +78,6 @@
     <x:t>Habiba Hussein</x:t>
   </x:si>
   <x:si>
-    <x:t>1230179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حمزة محمد سيد حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230192</x:t>
   </x:si>
   <x:si>
@@ -139,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>ABDELRAHMAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
   </x:si>
   <x:si>
     <x:t>1230075</x:t>
@@ -949,7 +949,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.4399514236</x:v>
+        <x:v>45907.4151853819</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -981,7 +981,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4151853819</x:v>
+        <x:v>45915.9553726505</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1013,7 +1013,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.9553726505</x:v>
+        <x:v>45907.4344469097</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1045,7 +1045,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4344469097</x:v>
+        <x:v>45907.4158746875</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1077,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4158746875</x:v>
+        <x:v>45907.418944213</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.418944213</x:v>
+        <x:v>45922.5535414005</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45922.5535414005</x:v>
+        <x:v>45927.4617486921</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>

--- a/downloaded_files/EPES303_Tutorial-35527.xlsx
+++ b/downloaded_files/EPES303_Tutorial-35527.xlsx
@@ -1589,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4408876968</x:v>
+        <x:v>45927.722759294</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>

--- a/downloaded_files/EPES303_Tutorial-35527.xlsx
+++ b/downloaded_files/EPES303_Tutorial-35527.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Habiba Hussein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزة محمد سيد حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230192</x:t>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -949,7 +958,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4151853819</x:v>
+        <x:v>45929.351341169</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -981,7 +990,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.9553726505</x:v>
+        <x:v>45907.4151853819</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1013,7 +1022,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4344469097</x:v>
+        <x:v>45915.9553726505</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1045,7 +1054,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4158746875</x:v>
+        <x:v>45907.4344469097</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1086,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.418944213</x:v>
+        <x:v>45907.4158746875</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1118,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45922.5535414005</x:v>
+        <x:v>45907.418944213</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4617486921</x:v>
+        <x:v>45922.5535414005</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4199939468</x:v>
+        <x:v>45927.4617486921</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4162157407</x:v>
+        <x:v>45907.4199939468</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.8850995023</x:v>
+        <x:v>45907.4162157407</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4148712963</x:v>
+        <x:v>45915.8850995023</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.5901162384</x:v>
+        <x:v>45907.4148712963</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45922.5544126968</x:v>
+        <x:v>45909.5901162384</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45922.5544126968</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.415655706</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45923.2929736921</x:v>
+        <x:v>45907.415655706</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4207747685</x:v>
+        <x:v>45923.2929736921</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4214269676</x:v>
+        <x:v>45907.4207747685</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4265503125</x:v>
+        <x:v>45907.4214269676</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.722759294</x:v>
+        <x:v>45907.4265503125</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45927.722759294</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4197487269</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1670,6 +1679,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45907.4197487269</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES303_Tutorial-35527.xlsx
+++ b/downloaded_files/EPES303_Tutorial-35527.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Ahmed Mahmoud Ali Mohamed Salama</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان محمود عبدالعليم ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARAWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1230305</x:t>
@@ -407,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1278,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.8850995023</x:v>
+        <x:v>45933.5585101852</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.415655706</x:v>
+        <x:v>45933.5587388079</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45923.2929736921</x:v>
+        <x:v>45907.415655706</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4207747685</x:v>
+        <x:v>45923.2929736921</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4214269676</x:v>
+        <x:v>45907.4207747685</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4265503125</x:v>
+        <x:v>45907.4214269676</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.722759294</x:v>
+        <x:v>45907.4265503125</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45927.722759294</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1694,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4197487269</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1711,6 +1720,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.4197487269</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES303_Tutorial-35527.xlsx
+++ b/downloaded_files/EPES303_Tutorial-35527.xlsx
@@ -81,7 +81,7 @@
     <x:t>1230179</x:t>
   </x:si>
   <x:si>
-    <x:t>حمزة محمد سيد حسن</x:t>
+    <x:t>حمزة محمد سيد على على حسن</x:t>
   </x:si>
   <x:si>
     <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>

--- a/downloaded_files/EPES303_Tutorial-35527.xlsx
+++ b/downloaded_files/EPES303_Tutorial-35527.xlsx
@@ -72,10 +72,10 @@
     <x:t>1230028</x:t>
   </x:si>
   <x:si>
-    <x:t>حبيبه حسين محمد احمد احمد بدر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Hussein</x:t>
+    <x:t xml:space="preserve">حبيبه حسين محمد احمد </x:t>
+  </x:si>
+  <x:si>
+    <x:t>HABIBA HUSSEIN MOHAMED AHMED</x:t>
   </x:si>
   <x:si>
     <x:t>1230179</x:t>
